--- a/docs/PT3/PT3_05.08.24_output.xlsx
+++ b/docs/PT3/PT3_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,140 +505,165 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1730825597.1304996</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1730825597.5289116</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825597.1304996.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825597.5289116.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.81</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.2300000000000182</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1730825600.633749</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1730825600.9071176</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825600.633749.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825600.9071176.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.61</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>277.61</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -631,48 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1730825602.8500218</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1730825603.0493305</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825602.8500218.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825603.0493305.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>277.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -680,293 +729,347 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1730825608.7645047</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1730825608.9050765</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825608.7645047.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1730825608.9050765.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.89</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>276.34</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1730825610.3919256</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1730825610.453414</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825610.3919256.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825610.453414.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.66</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>128.65</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1730825610.5139256</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1730825610.7423415</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825610.5139256.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825610.7423415.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>128.52</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>128.76</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2399999999999807</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1730825612.7162228</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1730825613.2140868</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825612.7162228.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825613.2140868.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.07</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.1</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1730825615.0334575</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1730825615.0910134</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825615.0334575.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825615.0910134.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.28</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.79</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.5100000000000051</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1730825615.236438</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1730825615.5048652</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825615.236438.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825615.5048652.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.96</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>127.96</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,783 +1077,927 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1730825616.999926</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1730825618.5151963</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825616.999926.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825618.5151963.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.16</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>128.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1730825620.9126275</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1730825621.2706916</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825620.9126275.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825621.2706916.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.99</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>127.76</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.2299999999999898</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1730825622.495773</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1730825622.9569747</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825622.495773.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1730825622.9569747.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>127.66</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>127.59</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.06999999999999318</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1730825626.396845</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1730825627.3824859</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825626.396845.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825627.3824859.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6407.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6379.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-28</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1730825629.6224945</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1730825629.7249577</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825629.6224945.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825629.7249577.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6435.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6436</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1730825634.8740678</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1730825635.4465156</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825634.8740678.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1730825635.4465156.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6421.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6417</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1730825636.629097</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1730825637.0814223</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825636.629097.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825637.0814223.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>498.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>498</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.05000000000001137</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1730825648.0559525</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1730825648.291283</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825648.0559525.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1730825648.291283.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>495.35</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>494.85</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1730825649.1840358</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1730825650.3030696</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825649.1840358.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825650.3030696.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>224.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>224.1</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.4000000000000057</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1730825651.9316423</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1730825652.3537228</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825651.9316423.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825652.3537228.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>224</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>223.52</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.4799999999999898</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1730825652.4567122</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1730825653.1499</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825652.4567122.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825653.1499.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>223.78</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>223.37</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1730825653.7946415</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1730825654.32742</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825653.7946415.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825654.32742.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>223.05</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>222.73</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3200000000000216</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1730825655.02849</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1730825655.172533</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825655.02849.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825655.172533.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>224.7</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>224.79</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1730825656.685863</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1730825656.9067018</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825656.685863.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825656.9067018.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>225.26</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>225.1</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>-0.1599999999999966</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1730825661.6534324</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1730825661.7548852</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825661.6534324.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MOEX1730825661.7548852.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>224.08</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>224.05</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1730825662.8366437</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1730825663.4948382</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825662.8366437.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825663.4948382.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1008</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1008</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1758,244 +2005,289 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1730825664.8694212</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1730825665.3596306</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825664.8694212.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825665.3596306.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1005.6</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1006</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.3999999999999773</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1730825667.240479</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1730825667.651375</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825667.240479.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825667.651375.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1002</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1002.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.2000000000000455</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1730825667.7442474</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1730825667.8086362</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825667.7442474.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825667.8086362.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1002.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1730825669.5395555</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1730825670.512701</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825669.5395555.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825670.512701.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1008.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1009.2</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4000000000000909</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1730825673.8363779</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1730825673.9786477</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825673.8363779.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825673.9786477.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1005.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2003,342 +2295,405 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1730825674.1211438</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1730825674.9351058</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825674.1211438.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1730825674.9351058.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1006</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1005.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1730825682.742561</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1730825685.102062</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825682.742561.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825685.102062.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>124.56</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>124.38</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1800000000000068</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1730825687.1307037</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1730825687.767086</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825687.1307037.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825687.767086.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>124.02</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>123.94</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1730825687.7826738</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1730825687.841542</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825687.7826738.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825687.841542.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>123.94</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>124.14</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1730825690.302369</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1730825690.572703</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825690.302369.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825690.572703.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>124.54</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>124.48</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1730825694.2724192</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1730825694.576427</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825694.2724192.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1730825694.576427.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>124.34</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>124.32</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1730825701.3940873</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1730825701.4522805</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825701.3940873.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825701.4522805.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>160.28</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>160.28</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2346,587 +2701,695 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1730825702.74705</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1730825703.6533835</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825702.74705.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825703.6533835.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>160.7</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>160.94</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1730825704.5924137</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1730825704.9027116</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825704.5924137.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825704.9027116.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>161.14</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>161.1</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1730825706.8237033</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1730825707.8676221</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825706.8237033.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1730825707.8676221.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>160.6</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>160.58</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1730825712.8309374</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1730825712.9304624</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825712.8309374.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825712.9304624.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>48.75</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>48.715</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.03499999999999659</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1730825713.072008</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1730825713.1735117</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825713.072008.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825713.1735117.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>48.715</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>48.665</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1730825713.5365899</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1730825713.5932019</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825713.5365899.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825713.5932019.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>48.73</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>49.06</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.3300000000000054</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1730825719.1513507</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1730825719.7157784</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825719.1513507.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1730825719.7157784.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>49.075</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>48.915</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.1600000000000037</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1730825725.701802</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1730825725.8033645</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825725.701802.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825725.8033645.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1375.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1374.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>1.399999999999864</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1730825726.3723512</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1730825727.0334005</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825726.3723512.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825727.0334005.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1371.2</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1375.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-4.399999999999864</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1730825728.8930547</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1730825729.336694</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825728.8930547.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825729.336694.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1379.4</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1379</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-0.4000000000000909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1730825730.236886</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1730825733.040363</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825730.236886.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825733.040363.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1380.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-3.199999999999818</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1730825733.0569549</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1730825733.5826373</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825733.0569549.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1730825733.5826373.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1377.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1377.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2934,2246 +3397,2660 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1730825736.9400795</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1730825737.9014027</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825736.9400795.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825737.9014027.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>59.18</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>59.15</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1730825739.401307</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1730825739.4598672</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825739.401307.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825739.4598672.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>58.96</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>58.99</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1730825740.0729594</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1730825740.2153006</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825740.0729594.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825740.2153006.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>59.37</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>59.4</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1730825741.2753124</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1730825741.502215</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825741.2753124.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825741.502215.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>59.56</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>59.67</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1730825741.7731838</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1730825742.1403887</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825741.7731838.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1730825742.1403887.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>59.61</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>59.6</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1730825748.9710124</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1730825749.0305495</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825748.9710124.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825749.0305495.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>95.97</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>95.93000000000001</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.03999999999999204</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1730825749.3463364</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1730825749.4995675</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825749.3463364.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825749.4995675.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>96.02</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>96.2</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1800000000000068</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1730825749.7762506</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1730825749.8367617</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825749.7762506.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825749.8367617.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>96.09999999999999</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>96.3</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1730825752.5257328</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1730825752.771686</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825752.5257328.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825752.771686.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>96.06999999999999</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>96.18000000000001</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.1100000000000136</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1730825754.0600846</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1730825754.163516</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825754.0600846.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/VTBR1730825754.163516.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>95.75</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>95.63</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1730825756.5815353</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1730825757.4319339</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825756.5815353.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825757.4319339.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>55.81</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>55.82</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.00999999999999801</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1730825758.9701405</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1730825761.5877993</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825758.9701405.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SELG1730825761.5877993.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>55.7</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>56.2</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1730825766.4754007</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1730825766.8561168</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825766.4754007.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825766.8561168.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>140.3</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>140.22</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.08000000000001251</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1730825771.2666037</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1730825771.4071887</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825771.2666037.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825771.4071887.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>139.16</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>141.52</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-2.360000000000014</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1730825773.4716794</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1730825774.070062</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825773.4716794.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825774.070062.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>142.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>142.14</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-0.06000000000000227</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1730825774.1247177</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1730825774.1813264</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825774.1247177.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825774.1813264.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>142.26</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>142.14</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1730825776.812159</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1730825777.8236094</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825776.812159.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825777.8236094.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>141.76</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>141.86</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1730825777.839225</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1730825778.3024588</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825777.839225.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SOFL1730825778.3024588.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>141.86</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>141.34</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1730825778.8616767</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1730825780.1253357</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825778.8616767.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825780.1253357.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>20.142</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>20.015</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.1269999999999989</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1730825781.700511</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1730825781.96998</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825781.700511.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825781.96998.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>19.949</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>19.927</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.02200000000000202</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1730825783.5514822</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1730825784.8496451</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825783.5514822.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825784.8496451.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>19.832</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>19.91</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.0779999999999994</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1730825785.6113408</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1730825785.8787308</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825785.6113408.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825785.8787308.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>19.919</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>19.9</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.0190000000000019</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1730825788.0673058</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1730825789.3403087</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825788.0673058.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825789.3403087.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>19.944</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>19.869</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.07499999999999929</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1730825789.8273063</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1730825790.5428982</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825789.8273063.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.5428982.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>19.898</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>19.8</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.09799999999999898</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1730825790.6228998</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1730825790.8074172</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.6228998.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.8074172.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>19.814</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>19.855</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-0.04100000000000037</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1730825790.8659775</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1730825790.9295795</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.8659775.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.9295795.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>19.846</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>19.817</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.02899999999999991</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1730825790.988146</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1730825791.2614303</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825790.988146.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/AFKS1730825791.2614303.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>19.8</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>19.78</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.01999999999999957</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1730825791.9119236</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1730825792.3101327</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825791.9119236.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825792.3101327.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>651.6</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>651.75</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1730825794.5934534</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1730825794.9587412</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825794.5934534.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825794.9587412.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>660</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>659.15</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.8500000000000227</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1730825798.7325246</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1730825799.0028753</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825798.7325246.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825799.0028753.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>661.6</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>660.75</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.8500000000000227</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.13</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1730825803.5456357</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1730825803.8452678</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825803.5456357.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1730825803.8452678.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>658</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>657</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1730825804.063403</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1730825804.6765223</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730825804.063403.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730825804.6765223.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>154.95</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>154.93</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.01999999999998181</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1730825805.71232</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1730825805.9057226</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730825805.71232.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1730825805.9057226.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>155.29</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>155.5</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.210000000000008</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1730825815.0857868</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1730825815.31417</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825815.0857868.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825815.31417.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>0.09530000000000001</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>0.09462000000000001</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.00068</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1730825819.4010332</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1730825819.7129455</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825819.4010332.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/FEES1730825819.7129455.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>0.09552000000000001</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>0.09568</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.0001599999999999935</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1730825822.7431717</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1730825822.7431717.png</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
+          <t>./test_images/FEES1730825822.7431717.png</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.095</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.095</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0</v>
+      <c r="L87" t="n">
+        <v>0.09504</v>
+      </c>
+      <c r="M87" t="n">
+        <v>-3.999999999999837e-05</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1730825823.7172692</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1730825824.0422661</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825823.7172692.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825824.0422661.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>95.72</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1730825826.7686965</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1730825827.0522547</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825826.7686965.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825827.0522547.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>95.20999999999999</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>94.94</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1730825828.132097</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1730825828.539134</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825828.132097.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/HYDR1730825828.539134.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>94.83</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>94.73</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1730825828.8168914</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1730825829.5308957</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825828.8168914.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825829.5308957.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>2901.8</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>2905.3</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>3.5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1730825835.661341</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1730825835.9316907</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825835.661341.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825835.9316907.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>2902.55</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>2903.65</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>1.099999999999909</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1730825836.0351434</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1730825837.1215973</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825836.0351434.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825837.1215973.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>2902.5</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>2907.6</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>5.099999999999909</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1730825840.9165146</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1730825841.0150902</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825840.9165146.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825841.0150902.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>2895.45</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>2895.4</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.04999999999972715</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1730825841.074626</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1730825841.135138</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825841.074626.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/MXI1730825841.135138.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>2895.25</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>2894</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>1.25</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1730825841.7169664</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1730825842.4704976</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825841.7169664.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825842.4704976.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>11.893</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>11.892</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1730825844.9113946</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1730825845.5744174</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825844.9113946.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/RUAL1730825845.5744174.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>PT3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>PT3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>11.908</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>11.909</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.001000000000001222</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -5187,7 +6064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5211,6 +6088,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5224,6 +6116,15 @@
       <c r="C2" t="n">
         <v>9</v>
       </c>
+      <c r="D2" t="n">
+        <v>-0.01899999999999993</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -5237,6 +6138,15 @@
       <c r="C3" t="n">
         <v>8</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.003749999999994813</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.01999999999999998</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -5250,6 +6160,15 @@
       <c r="C4" t="n">
         <v>7</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.08428571428571477</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -5263,6 +6182,15 @@
       <c r="C5" t="n">
         <v>7</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.2285714285714156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -5276,6 +6204,15 @@
       <c r="C6" t="n">
         <v>6</v>
       </c>
+      <c r="D6" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.24</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -5289,6 +6226,15 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.0700000000000017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -5302,6 +6248,15 @@
       <c r="C8" t="n">
         <v>5</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.01400000000000006</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5315,6 +6270,15 @@
       <c r="C9" t="n">
         <v>5</v>
       </c>
+      <c r="D9" t="n">
+        <v>2.199999999999909</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -5328,6 +6292,15 @@
       <c r="C10" t="n">
         <v>5</v>
       </c>
+      <c r="D10" t="n">
+        <v>0.01200000000000045</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.05000000000000002</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5341,6 +6314,15 @@
       <c r="C11" t="n">
         <v>5</v>
       </c>
+      <c r="D11" t="n">
+        <v>-1.319999999999982</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5354,6 +6336,15 @@
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.02125000000000021</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5367,6 +6358,15 @@
       <c r="C13" t="n">
         <v>4</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.05499999999999972</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -5380,6 +6380,15 @@
       <c r="C14" t="n">
         <v>4</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -5393,6 +6402,15 @@
       <c r="C15" t="n">
         <v>4</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.1375000000000171</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -5406,6 +6424,15 @@
       <c r="C16" t="n">
         <v>3</v>
       </c>
+      <c r="D16" t="n">
+        <v>-7.666666666666667</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.12</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -5419,6 +6446,15 @@
       <c r="C17" t="n">
         <v>3</v>
       </c>
+      <c r="D17" t="n">
+        <v>0.07999999999999829</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -5427,11 +6463,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0008399999999999935</v>
+        <v>0.0007999999999999952</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.0002666666666666651</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8400000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5445,6 +6490,15 @@
       <c r="C19" t="n">
         <v>2</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.1149999999999949</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -5458,6 +6512,15 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
+      <c r="D20" t="n">
+        <v>0.2249999999999943</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.09000000000000001</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5471,6 +6534,15 @@
       <c r="C21" t="n">
         <v>2</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.001000000000001222</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -5484,6 +6556,15 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
+      <c r="D22" t="n">
+        <v>0.245000000000001</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -5497,6 +6578,11 @@
       <c r="C23" t="n">
         <v>0</v>
       </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
